--- a/config_Release/freestyle_server.xlsx
+++ b/config_Release/freestyle_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +576,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1993,8 +2016,8 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2961,41 +2984,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+    <row r="26" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="39">
         <v>25</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="23">
-        <v>1</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="40">
+        <v>0</v>
+      </c>
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="41">
         <v>25</v>
       </c>
-      <c r="H26" s="23">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
         <v>15</v>
       </c>
-      <c r="J26" s="23">
-        <v>1</v>
-      </c>
-      <c r="K26" s="28">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
+      <c r="J26" s="40">
+        <v>1</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+      <c r="L26" s="43">
         <v>1</v>
       </c>
     </row>
@@ -3495,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4002,7 +4025,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4232,7 +4255,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4241,7 +4264,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/freestyle_server.xlsx
+++ b/config_Release/freestyle_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,20 +483,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,7 +569,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -593,6 +586,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -871,9 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,8 +984,8 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -979,8 +1013,8 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1008,8 +1042,8 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1037,8 +1071,8 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1093,8 +1127,8 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1122,8 +1156,8 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1151,8 +1185,8 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1180,8 +1214,8 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1209,8 +1243,8 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1238,8 +1272,8 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1267,8 +1301,8 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1299,7 +1333,7 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1330,7 +1364,7 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1361,7 +1395,7 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1392,7 +1426,7 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1533,7 +1567,7 @@
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1542,8 +1576,8 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1564,7 +1598,7 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1573,8 +1607,8 @@
       <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1595,7 +1629,7 @@
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1604,8 +1638,8 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1626,7 +1660,7 @@
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1635,8 +1669,8 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -1645,7 +1679,7 @@
       <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1804,7 +1838,7 @@
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="4">
@@ -1830,7 +1864,7 @@
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="4">
@@ -1898,116 +1932,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="36" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="45">
         <v>41</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="45">
+        <v>1</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="I36" s="47"/>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="45">
         <v>42</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="45">
+        <v>1</v>
+      </c>
+      <c r="F37" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="I37" s="47"/>
+      <c r="J37" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="47">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="45">
         <v>43</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="45">
+        <v>1</v>
+      </c>
+      <c r="F38" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="4">
-        <v>0</v>
+      <c r="I38" s="47"/>
+      <c r="J38" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="21">
         <v>101</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="21">
-        <v>1</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="21"/>
+      <c r="H39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21">
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2015,9 +2052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2031,1108 +2068,1108 @@
     <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="11" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29">
+    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
         <v>200</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="22">
         <v>12</v>
       </c>
-      <c r="G2" s="29">
-        <v>1</v>
-      </c>
-      <c r="H2" s="28">
-        <v>1</v>
-      </c>
-      <c r="I2" s="28">
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
         <v>15</v>
       </c>
-      <c r="J2" s="28">
-        <v>1</v>
-      </c>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
         <v>600</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="17">
         <v>24</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="18">
         <v>2</v>
       </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
         <v>15</v>
       </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="28">
-        <v>0</v>
-      </c>
-      <c r="L3" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
         <v>3000</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="17">
         <v>48</v>
       </c>
-      <c r="G4" s="24">
-        <v>3</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
         <v>15</v>
       </c>
-      <c r="J4" s="23">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>4</v>
       </c>
-      <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
         <v>20000</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="17">
         <v>48</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>4</v>
       </c>
-      <c r="H5" s="23">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
         <v>15</v>
       </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
-        <v>3</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18">
         <v>200</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="17">
         <v>20</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <v>5</v>
       </c>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
         <v>15</v>
       </c>
-      <c r="J6" s="23">
-        <v>1</v>
-      </c>
-      <c r="K6" s="28">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <v>6</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="24">
-        <v>3</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18">
         <v>600</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <v>40</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>6</v>
       </c>
-      <c r="H7" s="23">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
         <v>15</v>
       </c>
-      <c r="J7" s="23">
-        <v>1</v>
-      </c>
-      <c r="K7" s="28">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
-        <v>3</v>
-      </c>
-      <c r="D8" s="24">
-        <v>3</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="17">
         <v>2000</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>80</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>7</v>
       </c>
-      <c r="H8" s="23">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23">
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
         <v>15</v>
       </c>
-      <c r="J8" s="23">
-        <v>1</v>
-      </c>
-      <c r="K8" s="28">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="24">
-        <v>3</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17">
         <v>6000</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <v>80</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
         <v>8</v>
       </c>
-      <c r="H9" s="23">
-        <v>1</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <v>15</v>
       </c>
-      <c r="J9" s="23">
-        <v>1</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
         <v>200</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>48</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>9</v>
       </c>
-      <c r="H10" s="23">
-        <v>1</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
         <v>15</v>
       </c>
-      <c r="J10" s="23">
-        <v>1</v>
-      </c>
-      <c r="K10" s="28">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>10</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
         <v>800</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>96</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>10</v>
       </c>
-      <c r="H11" s="23">
-        <v>1</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
         <v>15</v>
       </c>
-      <c r="J11" s="23">
-        <v>1</v>
-      </c>
-      <c r="K11" s="28">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="17">
         <v>11</v>
       </c>
-      <c r="C12" s="23">
-        <v>3</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
         <v>2000</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="17">
         <v>192</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>11</v>
       </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>15</v>
       </c>
-      <c r="J12" s="23">
-        <v>1</v>
-      </c>
-      <c r="K12" s="28">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="17">
         <v>12</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>4</v>
       </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
         <v>6000</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="17">
         <v>192</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>12</v>
       </c>
-      <c r="H13" s="23">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
         <v>15</v>
       </c>
-      <c r="J13" s="23">
-        <v>1</v>
-      </c>
-      <c r="K13" s="28">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="17">
         <v>13</v>
       </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
         <v>200</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>13</v>
       </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
         <v>15</v>
       </c>
-      <c r="J14" s="23">
-        <v>1</v>
-      </c>
-      <c r="K14" s="28">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="17">
         <v>14</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
         <v>1000</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="17">
         <v>5</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
         <v>14</v>
       </c>
-      <c r="H15" s="23">
-        <v>1</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
         <v>15</v>
       </c>
-      <c r="J15" s="23">
-        <v>1</v>
-      </c>
-      <c r="K15" s="28">
-        <v>0</v>
-      </c>
-      <c r="L15" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="17">
         <v>15</v>
       </c>
-      <c r="C16" s="23">
-        <v>3</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
         <v>3000</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="17">
         <v>6</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
         <v>15</v>
       </c>
-      <c r="H16" s="23">
-        <v>1</v>
-      </c>
-      <c r="I16" s="23">
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
         <v>15</v>
       </c>
-      <c r="J16" s="23">
-        <v>1</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0</v>
-      </c>
-      <c r="L16" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="17">
         <v>16</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>4</v>
       </c>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
         <v>10000</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <v>6</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>16</v>
       </c>
-      <c r="H17" s="23">
-        <v>1</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
         <v>15</v>
       </c>
-      <c r="J17" s="23">
-        <v>1</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="17">
         <v>17</v>
       </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
         <v>200</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <v>17</v>
       </c>
-      <c r="H18" s="23">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
         <v>15</v>
       </c>
-      <c r="J18" s="23">
-        <v>1</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0</v>
-      </c>
-      <c r="L18" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="17">
         <v>18</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>2</v>
       </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
         <v>600</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="17">
         <v>5</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
         <v>18</v>
       </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
         <v>15</v>
       </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="28">
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="17">
         <v>19</v>
       </c>
-      <c r="C20" s="23">
-        <v>3</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="C20" s="17">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
         <v>3000</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="17">
         <v>6</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>19</v>
       </c>
-      <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23">
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
         <v>15</v>
       </c>
-      <c r="J20" s="23">
-        <v>1</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0</v>
-      </c>
-      <c r="L20" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="17">
         <v>20</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
         <v>20000</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="17">
         <v>6</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="18">
         <v>20</v>
       </c>
-      <c r="H21" s="23">
-        <v>1</v>
-      </c>
-      <c r="I21" s="23">
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
         <v>15</v>
       </c>
-      <c r="J21" s="23">
-        <v>1</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0</v>
-      </c>
-      <c r="L21" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="17">
         <v>21</v>
       </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="D22" s="24">
-        <v>1</v>
-      </c>
-      <c r="E22" s="24">
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
         <v>300</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="17">
         <v>32</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="18">
         <v>21</v>
       </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23">
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
         <v>15</v>
       </c>
-      <c r="J22" s="23">
-        <v>1</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0</v>
-      </c>
-      <c r="L22" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="17">
         <v>22</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="17">
         <v>2</v>
       </c>
-      <c r="D23" s="24">
-        <v>1</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
         <v>1000</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="17">
         <v>64</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="18">
         <v>22</v>
       </c>
-      <c r="H23" s="23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="23">
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
         <v>15</v>
       </c>
-      <c r="J23" s="23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="28">
-        <v>0</v>
-      </c>
-      <c r="L23" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="J23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="17">
         <v>23</v>
       </c>
-      <c r="C24" s="23">
-        <v>3</v>
-      </c>
-      <c r="D24" s="24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
         <v>3000</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="17">
         <v>128</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="18">
         <v>23</v>
       </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
         <v>15</v>
       </c>
-      <c r="J24" s="23">
-        <v>1</v>
-      </c>
-      <c r="K24" s="28">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="17">
         <v>24</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="17">
         <v>4</v>
       </c>
-      <c r="D25" s="24">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
         <v>8000</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="17">
         <v>128</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>24</v>
       </c>
-      <c r="H25" s="23">
-        <v>1</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
         <v>15</v>
       </c>
-      <c r="J25" s="23">
-        <v>1</v>
-      </c>
-      <c r="K25" s="28">
-        <v>0</v>
-      </c>
-      <c r="L25" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="32">
         <v>25</v>
       </c>
-      <c r="C26" s="40">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0</v>
-      </c>
-      <c r="F26" s="40">
-        <v>1</v>
-      </c>
-      <c r="G26" s="41">
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="34">
         <v>25</v>
       </c>
-      <c r="H26" s="40">
-        <v>1</v>
-      </c>
-      <c r="I26" s="40">
+      <c r="H26" s="33">
+        <v>1</v>
+      </c>
+      <c r="I26" s="33">
         <v>15</v>
       </c>
-      <c r="J26" s="40">
-        <v>1</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="J26" s="33">
+        <v>1</v>
+      </c>
+      <c r="K26" s="35">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="26">
         <v>29</v>
       </c>
-      <c r="C27" s="23">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
         <v>3000</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="17">
         <v>32</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>13</v>
       </c>
-      <c r="H27" s="23">
-        <v>1</v>
-      </c>
-      <c r="I27" s="23">
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
         <v>15</v>
       </c>
-      <c r="J27" s="23">
-        <v>1</v>
-      </c>
-      <c r="K27" s="28">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="26">
         <v>33</v>
       </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
         <v>100</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="17">
         <v>48</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="18">
         <v>33</v>
       </c>
-      <c r="H28" s="23">
-        <v>1</v>
-      </c>
-      <c r="I28" s="23">
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
         <v>15</v>
       </c>
-      <c r="J28" s="23">
-        <v>1</v>
-      </c>
-      <c r="K28" s="28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="26">
         <v>34</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="17">
         <v>2</v>
       </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
         <v>500</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="17">
         <v>96</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>34</v>
       </c>
-      <c r="H29" s="23">
-        <v>1</v>
-      </c>
-      <c r="I29" s="23">
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
         <v>15</v>
       </c>
-      <c r="J29" s="23">
-        <v>1</v>
-      </c>
-      <c r="K29" s="28">
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3146,7 +3183,7 @@
       <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="1">
@@ -3155,7 +3192,7 @@
       <c r="F30" s="1">
         <v>192</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <v>35</v>
       </c>
       <c r="H30" s="1">
@@ -3167,10 +3204,10 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="28">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3184,7 +3221,7 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <v>1</v>
       </c>
       <c r="E31" s="1">
@@ -3193,7 +3230,7 @@
       <c r="F31" s="1">
         <v>192</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>36</v>
       </c>
       <c r="H31" s="1">
@@ -3205,10 +3242,10 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="28">
-        <v>0</v>
-      </c>
-      <c r="L31" s="12">
+      <c r="K31" s="22">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3240,7 +3277,7 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="22">
         <v>0</v>
       </c>
       <c r="L32" s="1">
@@ -3276,7 +3313,7 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="22">
         <v>0</v>
       </c>
       <c r="L33" s="1">
@@ -3312,7 +3349,7 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="22">
         <v>0</v>
       </c>
       <c r="L34" s="1">
@@ -3348,162 +3385,162 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="22">
         <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="36" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="45">
         <v>41</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="C36" s="47">
+        <v>1</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0</v>
+      </c>
+      <c r="F36" s="45">
+        <v>0</v>
+      </c>
+      <c r="G36" s="47">
         <v>41</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="28">
-        <v>0</v>
-      </c>
-      <c r="L36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="H36" s="47">
+        <v>0</v>
+      </c>
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="47">
+        <v>0</v>
+      </c>
+      <c r="K36" s="48">
+        <v>0</v>
+      </c>
+      <c r="L36" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="45">
         <v>42</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="47">
         <v>2</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="D37" s="47">
+        <v>0</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0</v>
+      </c>
+      <c r="G37" s="47">
         <v>42</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="28">
-        <v>0</v>
-      </c>
-      <c r="L37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="H37" s="47">
+        <v>0</v>
+      </c>
+      <c r="I37" s="47">
+        <v>0</v>
+      </c>
+      <c r="J37" s="47">
+        <v>0</v>
+      </c>
+      <c r="K37" s="48">
+        <v>0</v>
+      </c>
+      <c r="L37" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="45">
         <v>43</v>
       </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="C38" s="47">
+        <v>3</v>
+      </c>
+      <c r="D38" s="47">
+        <v>0</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0</v>
+      </c>
+      <c r="F38" s="45">
+        <v>0</v>
+      </c>
+      <c r="G38" s="47">
         <v>43</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="28">
-        <v>0</v>
-      </c>
-      <c r="L38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="H38" s="47">
+        <v>0</v>
+      </c>
+      <c r="I38" s="47">
+        <v>0</v>
+      </c>
+      <c r="J38" s="47">
+        <v>0</v>
+      </c>
+      <c r="K38" s="48">
+        <v>0</v>
+      </c>
+      <c r="L38" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="21">
         <v>101</v>
       </c>
-      <c r="C39" s="33">
-        <v>1</v>
-      </c>
-      <c r="D39" s="34">
-        <v>1</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="C39" s="27">
+        <v>1</v>
+      </c>
+      <c r="D39" s="28">
+        <v>1</v>
+      </c>
+      <c r="E39" s="28">
         <v>200</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="27">
         <v>12</v>
       </c>
-      <c r="G39" s="34">
-        <v>1</v>
-      </c>
-      <c r="H39" s="33">
-        <v>1</v>
-      </c>
-      <c r="I39" s="33">
+      <c r="G39" s="28">
+        <v>1</v>
+      </c>
+      <c r="H39" s="27">
+        <v>1</v>
+      </c>
+      <c r="I39" s="27">
         <v>15</v>
       </c>
-      <c r="J39" s="33">
-        <v>1</v>
-      </c>
-      <c r="K39" s="28">
-        <v>0</v>
-      </c>
-      <c r="L39" s="35">
+      <c r="J39" s="27">
+        <v>1</v>
+      </c>
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
+      <c r="L39" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3518,15 +3555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="36.125" customWidth="1"/>
     <col min="7" max="7" width="49.75" customWidth="1"/>
@@ -3543,7 +3580,7 @@
       <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="38" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3566,7 +3603,7 @@
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="39">
         <v>200</v>
       </c>
       <c r="E2" s="1">
@@ -3587,7 +3624,7 @@
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="40">
         <v>600</v>
       </c>
       <c r="E3" s="1">
@@ -3608,7 +3645,7 @@
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="40">
         <v>4500</v>
       </c>
       <c r="E4" s="1">
@@ -3629,7 +3666,7 @@
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="41">
         <v>30000</v>
       </c>
       <c r="E5" s="1">
@@ -3650,13 +3687,13 @@
       <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="39">
         <v>400</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="1"/>
@@ -3671,7 +3708,7 @@
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="40">
         <v>1200</v>
       </c>
       <c r="E7" s="1">
@@ -3690,7 +3727,7 @@
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="40">
         <v>6000</v>
       </c>
       <c r="E8" s="1">
@@ -3709,7 +3746,7 @@
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="41">
         <v>18000</v>
       </c>
       <c r="E9" s="1">
@@ -3728,7 +3765,7 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="42">
         <v>600</v>
       </c>
       <c r="E10" s="1">
@@ -3747,7 +3784,7 @@
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="42">
         <v>2400</v>
       </c>
       <c r="E11" s="1">
@@ -3766,7 +3803,7 @@
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="42">
         <v>8000</v>
       </c>
       <c r="E12" s="1">
@@ -3785,7 +3822,7 @@
       <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="42">
         <v>24000</v>
       </c>
       <c r="E13" s="1">
@@ -3804,7 +3841,7 @@
       <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="39">
         <v>300</v>
       </c>
       <c r="E14" s="1">
@@ -3823,7 +3860,7 @@
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="40">
         <v>1500</v>
       </c>
       <c r="E15" s="1">
@@ -3842,7 +3879,7 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="40">
         <v>6000</v>
       </c>
       <c r="E16" s="1">
@@ -3861,7 +3898,7 @@
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="41">
         <v>20000</v>
       </c>
       <c r="E17" s="1">
@@ -3880,7 +3917,7 @@
       <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="39">
         <v>200</v>
       </c>
       <c r="E18" s="1">
@@ -3899,7 +3936,7 @@
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="40">
         <v>600</v>
       </c>
       <c r="E19" s="1">
@@ -3918,7 +3955,7 @@
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="40">
         <v>4500</v>
       </c>
       <c r="E20" s="1">
@@ -3937,7 +3974,7 @@
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="41">
         <v>30000</v>
       </c>
       <c r="E21" s="1">
@@ -3956,7 +3993,7 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="42">
         <v>450</v>
       </c>
       <c r="E22" s="1">
@@ -3973,7 +4010,7 @@
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="42">
         <v>1500</v>
       </c>
       <c r="E23" s="1">
@@ -3990,7 +4027,7 @@
       <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="42">
         <v>6000</v>
       </c>
       <c r="E24" s="1">
@@ -4007,7 +4044,7 @@
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="42">
         <v>16000</v>
       </c>
       <c r="E25" s="1">
@@ -4024,7 +4061,7 @@
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="43">
         <v>10000</v>
       </c>
       <c r="E26" s="1">
@@ -4041,7 +4078,7 @@
       <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="43">
         <v>400</v>
       </c>
       <c r="E27" s="1">
@@ -4058,7 +4095,7 @@
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="39">
         <v>300</v>
       </c>
       <c r="E28" s="1">
@@ -4075,7 +4112,7 @@
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="40">
         <v>1500</v>
       </c>
       <c r="E29" s="1">
@@ -4092,7 +4129,7 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="40">
         <v>8000</v>
       </c>
       <c r="E30" s="1">
@@ -4109,7 +4146,7 @@
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="41">
         <v>24000</v>
       </c>
       <c r="E31" s="1">
@@ -4126,10 +4163,10 @@
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="42">
         <v>200</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4143,10 +4180,10 @@
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="42">
         <v>600</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4160,10 +4197,10 @@
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="42">
         <v>3000</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4177,78 +4214,78 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="42">
         <v>7500</v>
       </c>
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="47">
         <v>41</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="C36" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="51">
+        <v>0</v>
+      </c>
+      <c r="E36" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="47">
         <v>42</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="C37" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="51">
+        <v>0</v>
+      </c>
+      <c r="E37" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="50" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="47">
         <v>43</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="C38" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="51">
+        <v>0</v>
+      </c>
+      <c r="E38" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="21">
         <v>101</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="38">
+      <c r="C39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="44">
         <v>200</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="15">
         <v>1</v>
       </c>
     </row>
@@ -4263,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:E28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4940,54 +4977,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="47">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="47">
         <v>41</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="C39" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0</v>
+      </c>
+      <c r="E39" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="47">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="C40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="47">
         <v>43</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="C41" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
         <v>3</v>
       </c>
     </row>

--- a/config_Release/freestyle_server.xlsx
+++ b/config_Release/freestyle_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -907,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="I36" s="47"/>
       <c r="J36" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I37" s="47"/>
       <c r="J37" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="I38" s="47"/>
       <c r="J38" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
